--- a/Police_Bharti/Police_Bharti/Admin/Excel_Input/test1.xlsx
+++ b/Police_Bharti/Police_Bharti/Admin/Excel_Input/test1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -70,30 +70,12 @@
     <t>d@gmail.com</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>Date Of Birth</t>
   </si>
   <si>
     <t>Phone Number</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>24/09/2013</t>
   </si>
   <si>
@@ -106,25 +88,103 @@
     <t>Region</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>33/08/2010</t>
   </si>
   <si>
     <t>m@m.com</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>Application Id</t>
+  </si>
+  <si>
+    <t>A000001</t>
+  </si>
+  <si>
+    <t>A000002</t>
+  </si>
+  <si>
+    <t>A000003</t>
+  </si>
+  <si>
+    <t>A000004</t>
+  </si>
+  <si>
+    <t>A000005</t>
+  </si>
+  <si>
+    <t>A000006</t>
+  </si>
+  <si>
+    <t>A000007</t>
+  </si>
+  <si>
+    <t>A000008</t>
+  </si>
+  <si>
+    <t>A000009</t>
+  </si>
+  <si>
+    <t>A000010</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cast </t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Maratha</t>
+  </si>
+  <si>
+    <t>OBC</t>
+  </si>
+  <si>
+    <t>Bhandari</t>
+  </si>
+  <si>
+    <t>Nilesh Sakpal</t>
+  </si>
+  <si>
+    <t>Mahesh Raut</t>
+  </si>
+  <si>
+    <t>Ramesh lalit</t>
+  </si>
+  <si>
+    <t>Payal Deshmukh</t>
+  </si>
+  <si>
+    <t>Saurabh Meheta</t>
+  </si>
+  <si>
+    <t>Rajesh Purohit</t>
+  </si>
+  <si>
+    <t>Prerna Shingh</t>
+  </si>
+  <si>
+    <t>Keshav Pandit</t>
+  </si>
+  <si>
+    <t>Vijender Shingh</t>
+  </si>
+  <si>
+    <t>Anjali Salvi</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Gramin</t>
   </si>
 </sst>
 </file>
@@ -560,106 +620,261 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2">
+        <v>9999</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>9999</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2">
-        <v>9999</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>9999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>9999</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>9999</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>9999</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Police_Bharti/Police_Bharti/Admin/Excel_Input/test1.xlsx
+++ b/Police_Bharti/Police_Bharti/Admin/Excel_Input/test1.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>

--- a/Police_Bharti/Police_Bharti/Admin/Excel_Input/test1.xlsx
+++ b/Police_Bharti/Police_Bharti/Admin/Excel_Input/test1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22264" windowHeight="12647" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
   <si>
     <t>Name</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>33/08/2010</t>
-  </si>
-  <si>
     <t>m@m.com</t>
   </si>
   <si>
@@ -185,12 +182,324 @@
   </si>
   <si>
     <t>Gramin</t>
+  </si>
+  <si>
+    <t>A000011</t>
+  </si>
+  <si>
+    <t>A000012</t>
+  </si>
+  <si>
+    <t>A000013</t>
+  </si>
+  <si>
+    <t>A000014</t>
+  </si>
+  <si>
+    <t>A000015</t>
+  </si>
+  <si>
+    <t>A000016</t>
+  </si>
+  <si>
+    <t>A000017</t>
+  </si>
+  <si>
+    <t>A000018</t>
+  </si>
+  <si>
+    <t>A000019</t>
+  </si>
+  <si>
+    <t>A000020</t>
+  </si>
+  <si>
+    <t>Akash chakor</t>
+  </si>
+  <si>
+    <t>ac96@gmail.com</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Mahar</t>
+  </si>
+  <si>
+    <t>Mang</t>
+  </si>
+  <si>
+    <t>r12@gmail.com</t>
+  </si>
+  <si>
+    <t>p12@gmail.com</t>
+  </si>
+  <si>
+    <t>s12@gmail.com</t>
+  </si>
+  <si>
+    <t>rp12@gmail.com</t>
+  </si>
+  <si>
+    <t>ps12@gmail.com</t>
+  </si>
+  <si>
+    <t>kp12@gmail.com</t>
+  </si>
+  <si>
+    <t>vs@gmail.com</t>
+  </si>
+  <si>
+    <t>as123@gmail.com</t>
+  </si>
+  <si>
+    <t>80/08/1999</t>
+  </si>
+  <si>
+    <t>24/09/2014</t>
+  </si>
+  <si>
+    <t>24/09/2015</t>
+  </si>
+  <si>
+    <t>24/09/2016</t>
+  </si>
+  <si>
+    <t>24/09/2017</t>
+  </si>
+  <si>
+    <t>24/09/2018</t>
+  </si>
+  <si>
+    <t>24/09/2019</t>
+  </si>
+  <si>
+    <t>24/09/2020</t>
+  </si>
+  <si>
+    <t>24/09/2021</t>
+  </si>
+  <si>
+    <t>24/09/2022</t>
+  </si>
+  <si>
+    <t>24/09/2023</t>
+  </si>
+  <si>
+    <t>24/09/2024</t>
+  </si>
+  <si>
+    <t>Chambhar</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Katkari</t>
+  </si>
+  <si>
+    <t>Koli</t>
+  </si>
+  <si>
+    <t>Pardhi</t>
+  </si>
+  <si>
+    <t>Bramhan</t>
+  </si>
+  <si>
+    <t>Muslim</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Kumbhar</t>
+  </si>
+  <si>
+    <t>VJNT</t>
+  </si>
+  <si>
+    <t>Dhangar</t>
+  </si>
+  <si>
+    <t>Kishor Suryagandh</t>
+  </si>
+  <si>
+    <t>Akshay Suryagandh</t>
+  </si>
+  <si>
+    <t>Sudhakar Chakor</t>
+  </si>
+  <si>
+    <t>Nilam Sathe</t>
+  </si>
+  <si>
+    <t>Ashwini Gawate</t>
+  </si>
+  <si>
+    <t>Aniket Tekwade</t>
+  </si>
+  <si>
+    <t>Swati Jadhav</t>
+  </si>
+  <si>
+    <t>Akshay Dhende</t>
+  </si>
+  <si>
+    <t>Vanita Machale</t>
+  </si>
+  <si>
+    <t>ks1@gmail.com</t>
+  </si>
+  <si>
+    <t>as7@gmail.com</t>
+  </si>
+  <si>
+    <t>sc5@gmail.com</t>
+  </si>
+  <si>
+    <t>ns99@gmail.com</t>
+  </si>
+  <si>
+    <t>ag234@gmail.com</t>
+  </si>
+  <si>
+    <t>at67@gmail.com</t>
+  </si>
+  <si>
+    <t>sj@gmail.com</t>
+  </si>
+  <si>
+    <t>ad@gmail.com</t>
+  </si>
+  <si>
+    <t>vm098@gmail.com</t>
+  </si>
+  <si>
+    <t>A000021</t>
+  </si>
+  <si>
+    <t>A000022</t>
+  </si>
+  <si>
+    <t>A000023</t>
+  </si>
+  <si>
+    <t>A000024</t>
+  </si>
+  <si>
+    <t>A000025</t>
+  </si>
+  <si>
+    <t>A000026</t>
+  </si>
+  <si>
+    <t>A000027</t>
+  </si>
+  <si>
+    <t>A000028</t>
+  </si>
+  <si>
+    <t>A000029</t>
+  </si>
+  <si>
+    <t>A000030</t>
+  </si>
+  <si>
+    <t>Priyanka Gawali</t>
+  </si>
+  <si>
+    <t>Komal Kasabe</t>
+  </si>
+  <si>
+    <t>Harsha fara</t>
+  </si>
+  <si>
+    <t>Somnath Gaikwad</t>
+  </si>
+  <si>
+    <t>Ravi Avchar</t>
+  </si>
+  <si>
+    <t>Gunjan Shelar</t>
+  </si>
+  <si>
+    <t>Baban Pandhare</t>
+  </si>
+  <si>
+    <t>Suman Dhorajkar</t>
+  </si>
+  <si>
+    <t>Nilam Sankpal</t>
+  </si>
+  <si>
+    <t>Rushi Pawar</t>
+  </si>
+  <si>
+    <t>24/09/2025</t>
+  </si>
+  <si>
+    <t>24/09/2026</t>
+  </si>
+  <si>
+    <t>24/09/2027</t>
+  </si>
+  <si>
+    <t>24/09/2028</t>
+  </si>
+  <si>
+    <t>24/09/2029</t>
+  </si>
+  <si>
+    <t>24/09/2030</t>
+  </si>
+  <si>
+    <t>24/09/2031</t>
+  </si>
+  <si>
+    <t>24/09/2032</t>
+  </si>
+  <si>
+    <t>24/09/2033</t>
+  </si>
+  <si>
+    <t>24/09/2034</t>
+  </si>
+  <si>
+    <t>pg12345@gmail.com</t>
+  </si>
+  <si>
+    <t>kk1@gmail.com</t>
+  </si>
+  <si>
+    <t>hf1@gmail.com</t>
+  </si>
+  <si>
+    <t>sg1@gmail.com</t>
+  </si>
+  <si>
+    <t>ra1@gmail.com</t>
+  </si>
+  <si>
+    <t>gs1@gmail.com</t>
+  </si>
+  <si>
+    <t>bp1@gmail.com</t>
+  </si>
+  <si>
+    <t>sd1@gmail.com</t>
+  </si>
+  <si>
+    <t>ns12@gmail.com</t>
+  </si>
+  <si>
+    <t>rp1@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,10 +538,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -520,9 +830,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -556,7 +866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -573,7 +883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -590,7 +900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -620,35 +930,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -660,12 +977,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -677,10 +994,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>20</v>
@@ -689,18 +1006,18 @@
         <v>9999</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -709,27 +1026,30 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3">
         <v>9999</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -737,16 +1057,31 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="I4">
         <v>9999</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -754,19 +1089,31 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="I5">
         <v>9999</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -774,16 +1121,31 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="I6">
         <v>9999</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -791,16 +1153,31 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="I7">
         <v>9999</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -808,19 +1185,31 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I8">
         <v>9999</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -828,16 +1217,31 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="I9">
         <v>9999</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -845,16 +1249,31 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="I10">
         <v>9999</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -862,10 +1281,659 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="I11">
         <v>9999</v>
       </c>
       <c r="J11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12">
+        <v>9876545678</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13">
+        <v>8798989809</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14">
+        <v>9090909098</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15">
+        <v>8080808080</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16">
+        <v>7070707070</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17">
+        <v>6060606060</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18">
+        <v>9050505050</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19">
+        <v>9040404040</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20">
+        <v>9878987890</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21">
+        <v>9087656789</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22">
+        <v>9087656789</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23">
+        <v>9087656789</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24">
+        <v>9087656789</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I25">
+        <v>9087656789</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26">
+        <v>9087656789</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27">
+        <v>9087656789</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28">
+        <v>9087656789</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29">
+        <v>9087656789</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I30">
+        <v>9087656789</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31">
+        <v>9087656789</v>
+      </c>
+      <c r="J31" t="s">
         <v>53</v>
       </c>
     </row>
@@ -873,8 +1941,36 @@
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H12" r:id="rId3"/>
+    <hyperlink ref="H4" r:id="rId4"/>
+    <hyperlink ref="H5" r:id="rId5"/>
+    <hyperlink ref="H6" r:id="rId6"/>
+    <hyperlink ref="H7" r:id="rId7"/>
+    <hyperlink ref="H8" r:id="rId8"/>
+    <hyperlink ref="H9" r:id="rId9"/>
+    <hyperlink ref="H10" r:id="rId10"/>
+    <hyperlink ref="H11" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H16" r:id="rId15"/>
+    <hyperlink ref="H17" r:id="rId16"/>
+    <hyperlink ref="H18" r:id="rId17"/>
+    <hyperlink ref="H19" r:id="rId18"/>
+    <hyperlink ref="H20" r:id="rId19"/>
+    <hyperlink ref="H21" r:id="rId20"/>
+    <hyperlink ref="H22" r:id="rId21"/>
+    <hyperlink ref="H23" r:id="rId22"/>
+    <hyperlink ref="H24" r:id="rId23"/>
+    <hyperlink ref="H25" r:id="rId24"/>
+    <hyperlink ref="H26" r:id="rId25"/>
+    <hyperlink ref="H27" r:id="rId26"/>
+    <hyperlink ref="H28" r:id="rId27"/>
+    <hyperlink ref="H29" r:id="rId28"/>
+    <hyperlink ref="H30" r:id="rId29"/>
+    <hyperlink ref="H31" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>